--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151749.961719214</v>
+        <v>1145662.720413163</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10872179.27790736</v>
+        <v>11128612.249591</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>93.69529233027632</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>102.2610062414949</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>189.7185254440884</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>180.6261618334216</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>125.0363540602925</v>
+        <v>10.03845516391069</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>47.22555979368857</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.47445699814442</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>48.16884844659287</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>225.7508892923963</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>218.6097747675223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>126.5388824951704</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>100.4057322893114</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>128.1306638699256</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>212.4076860934775</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>182.6625718220549</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>185.4048731212365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>137.9792024346629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>992.2105668866554</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>623.2480499462438</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>623.2480499462438</v>
+        <v>173.1505792509933</v>
       </c>
       <c r="E2" t="n">
-        <v>623.2480499462438</v>
+        <v>173.1505792509933</v>
       </c>
       <c r="F2" t="n">
-        <v>212.2621451566362</v>
+        <v>166.2050785017898</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>154.5407322664828</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4333,13 +4333,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.949738926589</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.810406950777</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.761759316041</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.761759316041</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1126.761759316041</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4603,16 +4603,16 @@
         <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.5623317901023</v>
+        <v>528.3525561915587</v>
       </c>
       <c r="C7" t="n">
-        <v>643.5623317901023</v>
+        <v>359.4163732636518</v>
       </c>
       <c r="D7" t="n">
-        <v>493.4456923777666</v>
+        <v>209.2997338513161</v>
       </c>
       <c r="E7" t="n">
-        <v>345.5325987953735</v>
+        <v>61.386640268923</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,16 +4725,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336325</v>
+        <v>930.7936001653286</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901023</v>
+        <v>710.0010210217985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3277.90323595898</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3024.372759232816</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2693.309871889246</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2693.309871889246</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>2693.309871889246</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.570363233848</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>629.570363233848</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1367.769663312356</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1078.352493275395</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>850.3629423773781</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.570363233848</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1594.601034732593</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.638517792182</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>867.3728191854311</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>481.5845665871869</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3097.574620303721</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2744.805965033606</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2371.340206772526</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.200874796715</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>477.7578170212613</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>477.7578170212613</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>659.406281851501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>659.406281851501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>659.406281851501</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3197.788768583745</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2824.323010322666</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.8070661251691</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>590.8070661251691</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>590.8070661251691</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>590.8070661251691</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>590.8070661251691</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.8070661251691</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.543151974895</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2125.941686997837</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>593.9300580556954</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>447.0401105577851</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3173.601046153952</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>3173.601046153952</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6603,16 +6603,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.978273055629</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.4465442417435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.0013691777386</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32043864788533</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>67.91322356906872</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>222.7020862222426</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>80.62055371233322</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>37.39347442234325</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.30196929555964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>43.04708356698228</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>66.73277020259152</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809882.3980918364</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809882.3980918363</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.47014593</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.47014593</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459296</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
   </sheetData>
@@ -26322,22 +26322,22 @@
         <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,13 +26346,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403375</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.03345982</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545128</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079168</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079168</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26438,7 +26438,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26450,16 +26450,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872316.8120359043</v>
+        <v>-872316.8120359039</v>
       </c>
       <c r="C6" t="n">
-        <v>242434.9715400158</v>
+        <v>242434.9715400157</v>
       </c>
       <c r="D6" t="n">
-        <v>83013.7015421246</v>
+        <v>83013.70154212399</v>
       </c>
       <c r="E6" t="n">
-        <v>308679.8641180862</v>
+        <v>27889.72357937801</v>
       </c>
       <c r="F6" t="n">
-        <v>308679.8641180863</v>
+        <v>353302.1853867332</v>
       </c>
       <c r="G6" t="n">
-        <v>43806.53118127002</v>
+        <v>353302.185386733</v>
       </c>
       <c r="H6" t="n">
-        <v>353649.56464109</v>
+        <v>353302.1853867331</v>
       </c>
       <c r="I6" t="n">
-        <v>353649.5646410899</v>
+        <v>353302.1853867331</v>
       </c>
       <c r="J6" t="n">
-        <v>186044.3868311074</v>
+        <v>185697.0075767506</v>
       </c>
       <c r="K6" t="n">
-        <v>353649.5646410901</v>
+        <v>353302.185386733</v>
       </c>
       <c r="L6" t="n">
-        <v>305355.5946328993</v>
+        <v>305008.2153785423</v>
       </c>
       <c r="M6" t="n">
-        <v>353649.5646410899</v>
+        <v>268247.1574512214</v>
       </c>
       <c r="N6" t="n">
-        <v>353649.5646410899</v>
+        <v>353302.185386733</v>
       </c>
       <c r="O6" t="n">
-        <v>271513.7340456387</v>
+        <v>353302.1853867331</v>
       </c>
       <c r="P6" t="n">
-        <v>353649.56464109</v>
+        <v>353302.1853867331</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973554</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>317.8524104426776</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>198.7575463209105</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>182.4085303613876</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>175.5543663269192</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>201.3042082388402</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.38469396263878</v>
+        <v>135.3825928590205</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27827,7 +27827,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>156.6924103459316</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803246</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>203.9687948772351</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>577.6461122072591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597693</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1145662.720413163</v>
+        <v>1148817.639755384</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11128612.249591</v>
+        <v>10872179.27790736</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>149.6131963730101</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>102.2610062414949</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>189.7185254440884</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>227.7569603098099</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>10.03845516391069</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>66.40055121331444</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>150.9601371840621</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814442</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>114.2656173771025</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>250.7419974178622</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>126.9263824507425</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>6.43082580281734</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>71.3681437918796</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.1208074460232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>18.93556627298926</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>100.4057322893114</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>128.1306638699256</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>187.4608242120711</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2374,10 +2374,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>205.3566940380633</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6969570046971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>182.6625718220549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>23.10998325717173</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577438</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577438</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="D2" t="n">
-        <v>173.1505792509933</v>
+        <v>684.4496267886441</v>
       </c>
       <c r="E2" t="n">
-        <v>173.1505792509933</v>
+        <v>684.4496267886441</v>
       </c>
       <c r="F2" t="n">
-        <v>166.2050785017898</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>154.5407322664828</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>903.4321187182926</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>734.4959357903857</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>584.37929637805</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>436.4662027956568</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>289.5762552977465</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>121.589790606025</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4530,10 +4530,10 @@
         <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2184.059060190806</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1806.776971395621</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>651.7371154010191</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3525561915587</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C7" t="n">
-        <v>359.4163732636518</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2997338513161</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>61.386640268923</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063346</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.783151063346</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7936001653286</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.0010210217985</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="8">
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4813,40 +4813,40 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136267</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4907,22 +4907,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2198.179586173211</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1829.217069232799</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1279.042352470407</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>366.9636532421608</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1169.327103036485</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>879.9099329995245</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
         <v>779.6143379232838</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.543151974895</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.941686997837</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.866460342035</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342035</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5837,19 +5837,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>741.8431516380886</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>741.8431516380886</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>593.9300580556954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>447.0401105577851</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878353</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-8.503883084314845e-16</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>103.9410442028208</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>40.32043864788533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>283.3148978288033</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.7740891160479</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>80.62055371233322</v>
+        <v>146.5692538725977</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>37.39347442234325</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>29.94462611521715</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>12.04875628922494</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>43.04708356698228</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956936.4701459297</v>
+        <v>809882.3980918363</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956936.4701459297</v>
+        <v>809882.3980918361</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956936.4701459297</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956936.4701459297</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956936.4701459297</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="14">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.6638165587</v>
+      </c>
+      <c r="G2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="F2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,13 +26346,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26374,13 +26374,13 @@
         <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
@@ -26456,10 +26456,10 @@
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>242434.9715400157</v>
       </c>
       <c r="D6" t="n">
-        <v>83013.70154212399</v>
+        <v>83013.70154212398</v>
       </c>
       <c r="E6" t="n">
-        <v>27889.72357937801</v>
+        <v>308332.2451882805</v>
       </c>
       <c r="F6" t="n">
-        <v>353302.1853867332</v>
+        <v>308332.2451882805</v>
       </c>
       <c r="G6" t="n">
-        <v>353302.185386733</v>
+        <v>43771.79325583391</v>
       </c>
       <c r="H6" t="n">
-        <v>353302.1853867331</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="I6" t="n">
-        <v>353302.1853867331</v>
+        <v>353614.8267156542</v>
       </c>
       <c r="J6" t="n">
-        <v>185697.0075767506</v>
+        <v>186009.6489056717</v>
       </c>
       <c r="K6" t="n">
-        <v>353302.185386733</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="L6" t="n">
-        <v>305008.2153785423</v>
+        <v>305320.8567074634</v>
       </c>
       <c r="M6" t="n">
-        <v>268247.1574512214</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="N6" t="n">
-        <v>353302.185386733</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="O6" t="n">
-        <v>353302.1853867331</v>
+        <v>271478.9961202029</v>
       </c>
       <c r="P6" t="n">
-        <v>353302.1853867331</v>
+        <v>353614.8267156543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>257.2628493687013</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>198.7575463209105</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>77.61193515748712</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.4085303613876</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>175.5543663269192</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>183.7907424631441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>135.3825928590205</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>128.261909148423</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>52.95783295555808</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433937</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313201</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
